--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
@@ -416,7 +416,7 @@
     <x:col min="6" max="6" width="22.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -436,7 +436,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
@@ -408,12 +408,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.282054" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.139196" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.567768" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="22.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="20.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
